--- a/results/mp/deberta/corona/confidence/126/stop-words-topk-desired-masking-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-topk-desired-masking-0.2/avg_0.004_scores.xlsx
@@ -88,25 +88,25 @@
     <t>hand</t>
   </si>
   <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>care</t>
   </si>
   <si>
     <t>love</t>
@@ -610,7 +610,7 @@
         <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1046,25 +1046,25 @@
         <v>24</v>
       </c>
       <c r="K12">
-        <v>0.7577092511013216</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L12">
-        <v>172</v>
+        <v>48</v>
       </c>
       <c r="M12">
-        <v>184</v>
+        <v>52</v>
       </c>
       <c r="N12">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="O12">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P12" t="b">
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>55</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1072,25 +1072,25 @@
         <v>25</v>
       </c>
       <c r="K13">
-        <v>0.7272727272727273</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L13">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="M13">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="N13">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O13">
-        <v>0.07999999999999996</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P13" t="b">
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1098,25 +1098,25 @@
         <v>26</v>
       </c>
       <c r="K14">
-        <v>0.7222222222222222</v>
+        <v>0.7196652719665272</v>
       </c>
       <c r="L14">
-        <v>65</v>
+        <v>172</v>
       </c>
       <c r="M14">
-        <v>69</v>
+        <v>172</v>
       </c>
       <c r="N14">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>25</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1150,25 +1150,25 @@
         <v>28</v>
       </c>
       <c r="K16">
-        <v>0.6861538461538461</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L16">
-        <v>223</v>
+        <v>38</v>
       </c>
       <c r="M16">
-        <v>238</v>
+        <v>39</v>
       </c>
       <c r="N16">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="O16">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P16" t="b">
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>102</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1176,25 +1176,25 @@
         <v>29</v>
       </c>
       <c r="K17">
-        <v>0.6666666666666666</v>
+        <v>0.6588235294117647</v>
       </c>
       <c r="L17">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="M17">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="N17">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="O17">
-        <v>0.03000000000000003</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P17" t="b">
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1202,25 +1202,25 @@
         <v>30</v>
       </c>
       <c r="K18">
-        <v>0.6588235294117647</v>
+        <v>0.6558823529411765</v>
       </c>
       <c r="L18">
-        <v>56</v>
+        <v>223</v>
       </c>
       <c r="M18">
-        <v>60</v>
+        <v>223</v>
       </c>
       <c r="N18">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>29</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="10:17">
